--- a/DOM_Banner/output/dept_banner/Talha Riaz_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Talha Riaz_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,349 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Rachel King, Poorani Sekar, Hiten Patel, Maryam Naveed, Sumaia Aqtash, Shubham Adroja, Denise Jacob, Talha Riaz</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378347800</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>CNS toxoplasmosis, a rare presentation in a patient with Myasthenia Gravis</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5037713110", "https://openalex.org/A5067407600", "https://openalex.org/A5074073988", "https://openalex.org/A5085400732", "https://openalex.org/A5092022563", "https://openalex.org/A5000816076", "https://openalex.org/A5015095691", "https://openalex.org/A5016073754"), au_display_name = c("Rachel King", "Poorani Sekar", "Hiten Patel", "Maryam Naveed", "Sumaia Aqtash", "Shubham Adroja", "Denise Jacob", "Talha Riaz"), au_orcid = c("https://orcid.org/0000-0002-0567-5846", 
-"https://orcid.org/0000-0002-4000-9419", NA, NA, NA, NA, NA, "https://orcid.org/0000-0002-4759-5764"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Internal Medicine, Cleveland Clinic Akron General, Akron, OH, USA.; Division of Infectious Diseases, Western Reserve Hospital, Cuyahoga falls, OH, USA.", "Division of Infectious Diseases, Department of Internal Medicine, University of Iowa Hospitals and Clinics, Iowa City, IA, USA.", 
-"University-Heritage College of Osteopathic Medicine, Athens, OH, USA.", "Division of Infectious Diseases, Department of Internal Medicine, Banner University Medical Center, Tucson, AZ, USA", "Division of Infectious Diseases, Western Reserve Hospital, Cuyahoga falls, OH, USA.", "Department of Internal Medicine, Cleveland Clinic Akron General, Akron, OH, USA.", "Department of Pathology, University of Iowa Hospitals and Clinics, Iowa City, IA, USA.", "Department of Internal Medicine, Cleveland Clinic Akron General, Akron, OH, USA; Division of Infectious Diseases, Department of Internal Medicine, Banner University Medical Center, Tucson, AZ, USA; Division of Infectious Diseases, Western Reserve Hospital, Cuyahoga falls, OH, USA"
-), institution_id = c("https://openalex.org/I4210158374", "https://openalex.org/I2802216851", NA, "https://openalex.org/I4210124665", "https://openalex.org/I2802943376", "https://openalex.org/I4210158374", "https://openalex.org/I2802216851", "https://openalex.org/I2802943376"), institution_display_name = c("Akron General Medical Center", "University of Iowa Hospitals and Clinics", NA, "Banner - University Medical Center Tucson", "Western Reserve Hospital", "Akron General Medical Center", "University of Iowa Hospitals and Clinics", 
-"Western Reserve Hospital"), institution_ror = c("https://ror.org/059xepj08", "https://ror.org/04g2swc55", NA, "https://ror.org/02xbk5j62", "https://ror.org/00ges3302", "https://ror.org/059xepj08", "https://ror.org/04g2swc55", "https://ror.org/00ges3302"), institution_country_code = c("US", "US", NA, "US", "US", "US", "US", "US"), institution_type = c("healthcare", "healthcare", NA, "healthcare", "healthcare", "healthcare", "healthcare", "healthcare"), institution_lineage = c("https://openalex.org/I4210158374", 
-"https://openalex.org/I2802216851, https://openalex.org/I4210142782", NA, "https://openalex.org/I4210124665", "https://openalex.org/I2802943376", "https://openalex.org/I4210158374", "https://openalex.org/I2802216851, https://openalex.org/I4210142782", "https://openalex.org/I2802943376"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>We report the case of a 78-year-old man with a past medical history of non-Hodgkin’s lymphoma s/p chemotherapy and Myasthenia Gravis on chronic mycophenolate mofetil (MMF), who presented with altered mental status and was found to have ring enhancing brain lesions. A brain biopsy revealed organisms consistent with Toxoplasma gondii. Cerebral toxoplasmosis has been rarely reported in patients with hematologic malignancies or in those receiving immunosuppressive agents. There needs to be a high degree of suspicion for T. gondii in HIV-negative individuals who are on immunosuppressants drugs including MMF.</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>IDCases</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>IDCases</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2898460781</t>
+          <t>https://doi.org/10.1016/j.idcr.2023.e01780</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2214-2509</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37229280</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.idcr.2023.e01780</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>e01780</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>e01780</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.idcr.2023.e01780</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4378347800</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4378347800", doi = "https://doi.org/10.1016/j.idcr.2023.e01780", pmid = "https://pubmed.ncbi.nlm.nih.gov/37229280")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.idcr.2023.e01780</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1900349041", "https://openalex.org/W2043487102", "https://openalex.org/W2048836922", "https://openalex.org/W2061086529", "https://openalex.org/W2076010384", "https://openalex.org/W2128103945", "https://openalex.org/W2130716686", "https://openalex.org/W2238270821", "https://openalex.org/W2512602248", "https://openalex.org/W2737578041", "https://openalex.org/W2998582605", "https://openalex.org/W3009212086")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4225120360", "https://openalex.org/W4291383363", "https://openalex.org/W2909651959", "https://openalex.org/W4322153642", "https://openalex.org/W3141973332", "https://openalex.org/W3044195532", "https://openalex.org/W2380129376", "https://openalex.org/W1975098398", "https://openalex.org/W2334959363", "https://openalex.org/W2170137230")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Talha Riaz_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Talha Riaz_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Cleveland Clinic Akron General, Akron, OH, USA.; Division of Infectious Diseases, Western Reserve Hospital, Cuyahoga falls, OH, USA.; Division of Infectious Diseases, Department of Internal Medicine, University of Iowa Hospitals and Clinics, Iowa City, IA, USA.; University-Heritage College of Osteopathic Medicine, Athens, OH, USA.; Division of Infectious Diseases, Department of Internal Medicine, Banner University Medical Center, Tucson, AZ, USA; Division of Infectious Diseases, Western Reserve Hospital, Cuyahoga falls, OH, USA.; Department of Internal Medicine, Cleveland Clinic Akron General, Akron, OH, USA.; Department of Pathology, University of Iowa Hospitals and Clinics, Iowa City, IA, USA.; Department of Internal Medicine, Cleveland Clinic Akron General, Akron, OH, USA; Division of Infectious Diseases, Department of Internal Medicine, Banner University Medical Center, Tucson, AZ, USA; Division of Infectious Diseases, Western Reserve Hospital, Cuyahoga falls, OH, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378347800</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>CNS toxoplasmosis, a rare presentation in a patient with Myasthenia Gravis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>IDCases</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.idcr.2023.e01780</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37229280</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.idcr.2023.e01780</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
